--- a/Number_extraction_comparison.xlsx
+++ b/Number_extraction_comparison.xlsx
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA43D962-FBAD-4C75-85BD-75903244C543}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
